--- a/Simulation Results/tau2=0.9.xlsx
+++ b/Simulation Results/tau2=0.9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhchy\Dropbox\2019 Spring\Meta\Code\Results\Testing\All_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A023E06-5FB0-4184-AB6A-843EC86DD1D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799BF840-6826-4665-8C73-BFF8BB1751AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{552E3D84-A4B4-447B-BED5-F7D12293AA94}"/>
   </bookViews>
@@ -11214,6 +11214,32 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="A74:A109"/>
+    <mergeCell ref="B74:B85"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="B86:B97"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="B98:B109"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
     <mergeCell ref="A38:A73"/>
     <mergeCell ref="B38:B49"/>
     <mergeCell ref="C38:C41"/>
@@ -11227,32 +11253,6 @@
     <mergeCell ref="C62:C65"/>
     <mergeCell ref="C66:C69"/>
     <mergeCell ref="C70:C73"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="A74:A109"/>
-    <mergeCell ref="B74:B85"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B86:B97"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="B98:B109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21801,6 +21801,32 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="A74:A109"/>
+    <mergeCell ref="B74:B85"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="B86:B97"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="B98:B109"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
     <mergeCell ref="A38:A73"/>
     <mergeCell ref="B38:B49"/>
     <mergeCell ref="C38:C41"/>
@@ -21814,32 +21840,6 @@
     <mergeCell ref="C62:C65"/>
     <mergeCell ref="C66:C69"/>
     <mergeCell ref="C70:C73"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="A74:A109"/>
-    <mergeCell ref="B74:B85"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B86:B97"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="B98:B109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21849,8 +21849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B50BA1-EE21-42C2-9585-3464A8CF9F4B}">
   <dimension ref="A1:AG112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110:D112"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74:AG109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26077,91 +26077,91 @@
         <v>35</v>
       </c>
       <c r="E45" s="12">
+        <v>1</v>
+      </c>
+      <c r="F45" s="7">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7">
+        <v>1</v>
+      </c>
+      <c r="H45" s="7">
+        <v>1</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J45" s="7">
+        <v>1</v>
+      </c>
+      <c r="K45" s="7">
+        <v>1</v>
+      </c>
+      <c r="L45" s="7">
+        <v>1</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>1</v>
+      </c>
+      <c r="O45" s="7">
+        <v>1</v>
+      </c>
+      <c r="P45" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>1</v>
+      </c>
+      <c r="R45" s="7">
+        <v>1</v>
+      </c>
+      <c r="S45" s="7">
+        <v>1</v>
+      </c>
+      <c r="T45" s="7">
+        <v>1</v>
+      </c>
+      <c r="U45" s="7">
+        <v>1</v>
+      </c>
+      <c r="V45" s="7">
+        <v>1</v>
+      </c>
+      <c r="W45" s="7">
+        <v>1</v>
+      </c>
+      <c r="X45" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="7">
         <v>0.999</v>
       </c>
-      <c r="F45" s="7">
-        <v>0.999</v>
-      </c>
-      <c r="G45" s="7">
-        <v>0.998</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0.999</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0.499</v>
-      </c>
-      <c r="J45" s="7">
-        <v>0.999</v>
-      </c>
-      <c r="K45" s="7">
-        <v>0.999</v>
-      </c>
-      <c r="L45" s="7">
-        <v>0.999</v>
-      </c>
-      <c r="M45" s="7">
-        <v>0.999</v>
-      </c>
-      <c r="N45" s="7">
-        <v>1</v>
-      </c>
-      <c r="O45" s="7">
-        <v>0.999</v>
-      </c>
-      <c r="P45" s="7">
-        <v>0.998</v>
-      </c>
-      <c r="Q45" s="7">
-        <v>0.999</v>
-      </c>
-      <c r="R45" s="7">
-        <v>1</v>
-      </c>
-      <c r="S45" s="7">
-        <v>1</v>
-      </c>
-      <c r="T45" s="7">
-        <v>1</v>
-      </c>
-      <c r="U45" s="7">
-        <v>1</v>
-      </c>
-      <c r="V45" s="7">
-        <v>0.999</v>
-      </c>
-      <c r="W45" s="7">
-        <v>0.999</v>
-      </c>
-      <c r="X45" s="7">
-        <v>0.999</v>
-      </c>
-      <c r="Y45" s="7">
-        <v>0.999</v>
-      </c>
-      <c r="Z45" s="7">
-        <v>0.999</v>
-      </c>
-      <c r="AA45" s="7">
+      <c r="AB45" s="7">
         <v>0.997</v>
       </c>
-      <c r="AB45" s="7">
-        <v>0.98599999999999999</v>
-      </c>
       <c r="AC45" s="7">
-        <v>1E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AD45" s="7">
-        <v>2.3E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AE45" s="7">
-        <v>0.97699999999999998</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="AF45" s="7">
-        <v>0.98699999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="AG45" s="7">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.3">
@@ -27225,58 +27225,58 @@
         <v>35</v>
       </c>
       <c r="E57" s="12">
+        <v>0.995</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0.995</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0.995</v>
+      </c>
+      <c r="I57" s="7">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="J57" s="7">
+        <v>0.995</v>
+      </c>
+      <c r="K57" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="L57" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="M57" s="7">
         <v>0.99399999999999999</v>
       </c>
-      <c r="F57" s="7">
+      <c r="N57" s="7">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="O57" s="7">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="P57" s="7">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="R57" s="7">
+        <v>0.997</v>
+      </c>
+      <c r="S57" s="7">
+        <v>0.997</v>
+      </c>
+      <c r="T57" s="7">
+        <v>0.997</v>
+      </c>
+      <c r="U57" s="7">
+        <v>0.997</v>
+      </c>
+      <c r="V57" s="7">
         <v>0.99399999999999999</v>
-      </c>
-      <c r="G57" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="H57" s="7">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="I57" s="7">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="J57" s="7">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="K57" s="7">
-        <v>1</v>
-      </c>
-      <c r="L57" s="7">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="M57" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="N57" s="7">
-        <v>0.96</v>
-      </c>
-      <c r="O57" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="P57" s="7">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="Q57" s="7">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="R57" s="7">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="S57" s="7">
-        <v>0.995</v>
-      </c>
-      <c r="T57" s="7">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="U57" s="7">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="V57" s="7">
-        <v>0.99299999999999999</v>
       </c>
       <c r="W57" s="7">
         <v>0.995</v>
@@ -27285,16 +27285,16 @@
         <v>0.995</v>
       </c>
       <c r="Y57" s="7">
-        <v>1</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="Z57" s="7">
-        <v>0.97499999999999998</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="AA57" s="7">
-        <v>0.98799999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AB57" s="7">
-        <v>0.46600000000000003</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="AC57" s="7">
         <v>0</v>
@@ -27303,13 +27303,13 @@
         <v>0</v>
       </c>
       <c r="AE57" s="7">
-        <v>0.91900000000000004</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="AF57" s="7">
-        <v>0.94499999999999995</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="AG57" s="7">
-        <v>0.99299999999999999</v>
+        <v>0.99399999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.3">
@@ -28373,64 +28373,64 @@
         <v>35</v>
       </c>
       <c r="E69" s="12">
-        <v>0.90100000000000002</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="F69" s="7">
-        <v>0.90100000000000002</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="G69" s="7">
-        <v>0.81799999999999995</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="H69" s="7">
-        <v>0.90100000000000002</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="I69" s="7">
-        <v>0.88400000000000001</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="J69" s="7">
-        <v>0.91900000000000004</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="K69" s="7">
         <v>1</v>
       </c>
       <c r="L69" s="7">
-        <v>0.83199999999999996</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="M69" s="7">
-        <v>0.90100000000000002</v>
+        <v>0.96</v>
       </c>
       <c r="N69" s="7">
-        <v>0.14000000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="O69" s="7">
-        <v>0.90100000000000002</v>
+        <v>0.96</v>
       </c>
       <c r="P69" s="7">
-        <v>0.90600000000000003</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="Q69" s="7">
-        <v>0.90800000000000003</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="R69" s="7">
-        <v>0.82899999999999996</v>
+        <v>0.873</v>
       </c>
       <c r="S69" s="7">
-        <v>0.84399999999999997</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="T69" s="7">
-        <v>0.83</v>
+        <v>0.874</v>
       </c>
       <c r="U69" s="7">
-        <v>0.83199999999999996</v>
+        <v>0.879</v>
       </c>
       <c r="V69" s="7">
-        <v>0.93500000000000005</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="W69" s="7">
-        <v>0.88</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="X69" s="7">
-        <v>0.88</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="Y69" s="7">
         <v>1</v>
@@ -28439,10 +28439,10 @@
         <v>1</v>
       </c>
       <c r="AA69" s="7">
-        <v>0.92100000000000004</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="AB69" s="7">
-        <v>4.8000000000000001E-2</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="AC69" s="7">
         <v>0</v>
@@ -28451,13 +28451,13 @@
         <v>0</v>
       </c>
       <c r="AE69" s="7">
-        <v>0.55100000000000005</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="AF69" s="7">
-        <v>0.68799999999999994</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="AG69" s="7">
-        <v>0.89600000000000002</v>
+        <v>0.93400000000000005</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.3">
@@ -29523,91 +29523,91 @@
         <v>35</v>
       </c>
       <c r="E81" s="12">
-        <v>0.90100000000000002</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="F81" s="7">
-        <v>0.90100000000000002</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="G81" s="7">
-        <v>0.8</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="H81" s="7">
-        <v>0.90100000000000002</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="I81" s="7">
-        <v>0.876</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="J81" s="7">
-        <v>0.90200000000000002</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="K81" s="7">
-        <v>1</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="L81" s="7">
-        <v>0.878</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="M81" s="7">
-        <v>0.91600000000000004</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="N81" s="7">
+        <v>0.999</v>
+      </c>
+      <c r="O81" s="7">
         <v>0.97899999999999998</v>
       </c>
-      <c r="O81" s="7">
-        <v>0.91600000000000004</v>
-      </c>
       <c r="P81" s="7">
-        <v>0.89200000000000002</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="Q81" s="7">
-        <v>0.89400000000000002</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="R81" s="7">
-        <v>0.82399999999999995</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="S81" s="7">
-        <v>0.86199999999999999</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="T81" s="7">
-        <v>0.82799999999999996</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="U81" s="7">
-        <v>0.83299999999999996</v>
+        <v>0.98</v>
       </c>
       <c r="V81" s="7">
-        <v>0.95299999999999996</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="W81" s="7">
-        <v>0.88</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="X81" s="7">
-        <v>0.879</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="Y81" s="7">
-        <v>1</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="Z81" s="7">
-        <v>1</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="AA81" s="7">
-        <v>0.92100000000000004</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="AB81" s="7">
-        <v>7.5999999999999998E-2</v>
+        <v>0.47</v>
       </c>
       <c r="AC81" s="7">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="AD81" s="7">
         <v>0</v>
       </c>
       <c r="AE81" s="7">
-        <v>0.57699999999999996</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="AF81" s="7">
-        <v>0.54700000000000004</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="AG81" s="7">
-        <v>0.91100000000000003</v>
+        <v>0.98599999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.3">
@@ -30671,91 +30671,91 @@
         <v>35</v>
       </c>
       <c r="E93" s="12">
-        <v>0.99</v>
+        <v>0.999</v>
       </c>
       <c r="F93" s="7">
-        <v>0.99</v>
+        <v>0.999</v>
       </c>
       <c r="G93" s="7">
-        <v>0.98799999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="H93" s="7">
-        <v>0.99</v>
+        <v>0.999</v>
       </c>
       <c r="I93" s="7">
-        <v>0.93799999999999994</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="J93" s="7">
+        <v>0.999</v>
+      </c>
+      <c r="K93" s="7">
+        <v>0.996</v>
+      </c>
+      <c r="L93" s="7">
+        <v>0.996</v>
+      </c>
+      <c r="M93" s="7">
+        <v>0.999</v>
+      </c>
+      <c r="N93" s="7">
         <v>0.99199999999999999</v>
       </c>
-      <c r="K93" s="7">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="L93" s="7">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="M93" s="7">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="N93" s="7">
-        <v>0.91900000000000004</v>
-      </c>
       <c r="O93" s="7">
-        <v>0.99199999999999999</v>
+        <v>0.999</v>
       </c>
       <c r="P93" s="7">
-        <v>0.96399999999999997</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="Q93" s="7">
-        <v>0.96599999999999997</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="R93" s="7">
-        <v>0.99299999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="S93" s="7">
-        <v>0.99299999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="T93" s="7">
-        <v>0.99299999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="U93" s="7">
-        <v>0.99299999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="V93" s="7">
-        <v>0.99299999999999999</v>
+        <v>0.999</v>
       </c>
       <c r="W93" s="7">
-        <v>0.99199999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="X93" s="7">
-        <v>0.99199999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="Y93" s="7">
-        <v>0.96799999999999997</v>
+        <v>0.996</v>
       </c>
       <c r="Z93" s="7">
-        <v>0.96899999999999997</v>
+        <v>0.996</v>
       </c>
       <c r="AA93" s="7">
-        <v>0.97799999999999998</v>
+        <v>0.998</v>
       </c>
       <c r="AB93" s="7">
-        <v>0.55600000000000005</v>
+        <v>0.94</v>
       </c>
       <c r="AC93" s="7">
         <v>0</v>
       </c>
       <c r="AD93" s="7">
-        <v>1E-3</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="AE93" s="7">
-        <v>0.91200000000000003</v>
+        <v>0.96</v>
       </c>
       <c r="AF93" s="7">
-        <v>0.93300000000000005</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="AG93" s="7">
-        <v>0.99</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.3">
@@ -31831,7 +31831,7 @@
         <v>1</v>
       </c>
       <c r="I105" s="7">
-        <v>0.51100000000000001</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="J105" s="7">
         <v>1</v>
@@ -31846,16 +31846,16 @@
         <v>1</v>
       </c>
       <c r="N105" s="7">
-        <v>0.99399999999999999</v>
+        <v>0.997</v>
       </c>
       <c r="O105" s="7">
+        <v>1</v>
+      </c>
+      <c r="P105" s="7">
         <v>0.999</v>
       </c>
-      <c r="P105" s="7">
-        <v>1</v>
-      </c>
       <c r="Q105" s="7">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="R105" s="7">
         <v>1</v>
@@ -31888,19 +31888,19 @@
         <v>1</v>
       </c>
       <c r="AB105" s="7">
-        <v>0.99199999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC105" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="AD105" s="7">
-        <v>1.9E-2</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="AE105" s="7">
-        <v>0.97199999999999998</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="AF105" s="7">
-        <v>0.98499999999999999</v>
+        <v>0.999</v>
       </c>
       <c r="AG105" s="7">
         <v>1</v>
@@ -32388,6 +32388,32 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="A74:A109"/>
+    <mergeCell ref="B74:B85"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="B86:B97"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="B98:B109"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
     <mergeCell ref="A38:A73"/>
     <mergeCell ref="B38:B49"/>
     <mergeCell ref="C38:C41"/>
@@ -32401,32 +32427,6 @@
     <mergeCell ref="C62:C65"/>
     <mergeCell ref="C66:C69"/>
     <mergeCell ref="C70:C73"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="A74:A109"/>
-    <mergeCell ref="B74:B85"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B86:B97"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="B98:B109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
